--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T09:48:26+00:00</t>
+    <t>2022-06-16T13:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AI$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AI$170</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5102" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="607">
   <si>
     <t>Property</t>
   </si>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Profile_ErregerNachweis</t>
+    <t>Profil_ErregerNachweis</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Profile - Erreger Nachweis</t>
+    <t>Profil - Erreger Nachweis</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T13:52:14+00:00</t>
+    <t>2022-06-16T21:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1244,7 +1244,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>https://charite.de/fhir/erregerfall/ValueSet/vs-detection-qualifier-snomed-ct</t>
+    <t>https://charite.de/fhir/erregerfall/ValueSet/vs-erregernachweis-qualifier</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1938,13 +1938,25 @@
     <t>https://charite.de/fhir/erregerfall/ValueSet/vs-erreger-viren</t>
   </si>
   <si>
-    <t>erstnachweisdatum</t>
+    <t>Erstnachweisdatum</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="99350-1"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Nachweisort</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="81267-7"/&gt;
+    &lt;display value="Setting of exposure to illness"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2256,7 +2268,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI161"/>
+  <dimension ref="A1:AI170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2289,7 +2301,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="163.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.31640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -18395,8 +18407,913 @@
         <v>72</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P162" s="2"/>
+      <c r="Q162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" hidden="true">
+      <c r="A168" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" hidden="true">
+      <c r="A169" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" hidden="true">
+      <c r="A170" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI161">
+  <autoFilter ref="A1:AI170">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18406,7 +19323,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI160">
+  <conditionalFormatting sqref="A2:AI169">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T21:59:32+00:00</t>
+    <t>2022-06-17T08:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T08:52:13+00:00</t>
+    <t>2022-07-06T12:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T12:38:37+00:00</t>
+    <t>2022-07-20T12:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2277,40 +2277,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.93359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.9375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="163.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.31640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T12:33:19+00:00</t>
+    <t>2022-08-08T12:51:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:52+00:00</t>
+    <t>2022-08-09T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -15090,7 +15090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>581</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>78</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>72</v>
@@ -16094,7 +16094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>581</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>78</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>72</v>
@@ -17098,7 +17098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>581</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>78</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:04:17+00:00</t>
+    <t>2022-08-18T12:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:34:44+00:00</t>
+    <t>2022-08-18T12:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:40:08+00:00</t>
+    <t>2022-08-18T12:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:42:22+00:00</t>
+    <t>2022-08-18T12:48:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:48:30+00:00</t>
+    <t>2022-08-18T13:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-erregernachweis.xlsx
+++ b/StructureDefinition-sd-erregernachweis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T13:03:54+00:00</t>
+    <t>2022-08-25T08:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
